--- a/Excel Data/UserList.xlsx
+++ b/Excel Data/UserList.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABEACE02EC95335E46045BDE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FE9A7D6B-0474-4186-9C91-9C3C1DC6F452}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_F25DC773A252ABEACE02EC95335E46045BDE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{252DCA55-BDD1-40E7-95CC-BD78E5355C27}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Bage</t>
   </si>
@@ -32,6 +32,42 @@
   </si>
   <si>
     <t>Defalut</t>
+  </si>
+  <si>
+    <t>Can Log in</t>
+  </si>
+  <si>
+    <t>A-Shift</t>
+  </si>
+  <si>
+    <t>B-Shift</t>
+  </si>
+  <si>
+    <t>C-Shift</t>
+  </si>
+  <si>
+    <t>D-Shift</t>
+  </si>
+  <si>
+    <t>Juliant Martinez</t>
+  </si>
+  <si>
+    <t>Dominic Potter</t>
+  </si>
+  <si>
+    <t>Login value Key</t>
+  </si>
+  <si>
+    <t>Do no read this line</t>
+  </si>
+  <si>
+    <t>Login not allow</t>
+  </si>
+  <si>
+    <t>Login allowed</t>
+  </si>
+  <si>
+    <t>Login blocked for beta testing</t>
   </si>
 </sst>
 </file>
@@ -67,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,42 +386,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>13050</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>99999</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>12052</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>13015</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>